--- a/ROI_analysis/ROI_autism.xlsx
+++ b/ROI_analysis/ROI_autism.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
